--- a/Result/DataTable.xlsx
+++ b/Result/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsiddiqsunny/Documents/Notre Dame/Research/SecurityEval/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41135FC8-D471-7F4A-975E-77280981C3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D43D4B-ECD2-0D45-B92C-507E9BEB8F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{E3FB6B4D-BFE5-BF42-BAE6-66D1841BF3B8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="160">
   <si>
     <t>CWE-ID</t>
   </si>
@@ -485,6 +485,36 @@
   </si>
   <si>
     <t>Insufficient Entropy</t>
+  </si>
+  <si>
+    <t>CWE-367</t>
+  </si>
+  <si>
+    <t>Time-of-check Time-of-use (TOCTOU) Race Condition</t>
+  </si>
+  <si>
+    <t>CWE-454</t>
+  </si>
+  <si>
+    <t>External Initialization of Trusted Variables or Data Stores</t>
+  </si>
+  <si>
+    <t>CWE-193</t>
+  </si>
+  <si>
+    <t>Off-by-one Error</t>
+  </si>
+  <si>
+    <t>CWE-414</t>
+  </si>
+  <si>
+    <t>Missing Lock Check</t>
+  </si>
+  <si>
+    <t>CWE-488</t>
+  </si>
+  <si>
+    <t>Exposure of Data Element to Wrong Session</t>
   </si>
 </sst>
 </file>
@@ -837,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C640A27-5BFC-554F-83B2-41C29522278D}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H33" si="0">SUM(C2:G2)</f>
+        <f>SUM(C2:G2)</f>
         <v>6</v>
       </c>
       <c r="I2">
@@ -930,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f>SUM(C3:G3)</f>
         <v>4</v>
       </c>
       <c r="I3">
@@ -960,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:G4)</f>
         <v>2</v>
       </c>
       <c r="I4">
@@ -990,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:G5)</f>
         <v>3</v>
       </c>
       <c r="I5">
@@ -1020,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:G6)</f>
         <v>1</v>
       </c>
       <c r="I6" t="s">
@@ -1050,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:G7)</f>
         <v>2</v>
       </c>
       <c r="I7">
@@ -1080,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:G8)</f>
         <v>2</v>
       </c>
       <c r="I8" t="s">
@@ -1110,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:G9)</f>
         <v>3</v>
       </c>
       <c r="I9">
@@ -1140,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:G10)</f>
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -1170,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:G11)</f>
         <v>1</v>
       </c>
       <c r="I11" t="s">
@@ -1200,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:G12)</f>
         <v>2</v>
       </c>
       <c r="I12" t="s">
@@ -1230,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:G13)</f>
         <v>2</v>
       </c>
       <c r="I13" t="s">
@@ -1260,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:G14)</f>
         <v>3</v>
       </c>
       <c r="I14" t="s">
@@ -1269,10 +1299,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1290,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:G15)</f>
         <v>1</v>
       </c>
       <c r="I15" t="s">
@@ -1299,13 +1329,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1317,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:G16)</f>
         <v>1</v>
       </c>
       <c r="I16" t="s">
@@ -1329,10 +1359,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1347,11 +1377,11 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(C17:G17)</f>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>43</v>
@@ -1359,16 +1389,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1377,11 +1407,11 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C18:G18)</f>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>43</v>
@@ -1389,16 +1419,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1407,11 +1437,11 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(C19:G19)</f>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>43</v>
@@ -1419,16 +1449,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1437,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f>SUM(C20:G20)</f>
         <v>1</v>
       </c>
       <c r="I20" t="s">
@@ -1449,16 +1479,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1467,11 +1497,11 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C21:G21)</f>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>43</v>
@@ -1479,16 +1509,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1497,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:G22)</f>
         <v>1</v>
       </c>
       <c r="I22" t="s">
@@ -1509,16 +1539,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1530,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f>SUM(C23:G23)</f>
         <v>1</v>
       </c>
       <c r="I23" t="s">
@@ -1539,13 +1569,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1557,11 +1587,11 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(C24:G24)</f>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
         <v>43</v>
@@ -1569,19 +1599,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1590,8 +1620,8 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(C25:G25)</f>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>43</v>
@@ -1599,13 +1629,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1614,34 +1644,34 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>18</v>
+        <f>SUM(C26:G26)</f>
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1650,8 +1680,8 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C27:G27)</f>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
         <v>43</v>
@@ -1659,10 +1689,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1674,28 +1704,28 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>43</v>
+        <f>SUM(C28:G28)</f>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1707,11 +1737,11 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(C29:G29)</f>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>43</v>
@@ -1719,13 +1749,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1737,11 +1767,11 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(C30:G30)</f>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
         <v>43</v>
@@ -1749,10 +1779,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1761,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f>SUM(C31:G31)</f>
         <v>1</v>
       </c>
       <c r="I31" t="s">
@@ -1779,10 +1809,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1797,11 +1827,11 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C32:G32)</f>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
         <v>43</v>
@@ -1809,16 +1839,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1830,8 +1860,8 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C33:G33)</f>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
         <v>43</v>
@@ -1839,10 +1869,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1851,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1860,8 +1890,8 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H71" si="1">SUM(C34:G34)</f>
-        <v>3</v>
+        <f>SUM(C34:G34)</f>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>43</v>
@@ -1869,13 +1899,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1887,25 +1917,25 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>9</v>
+        <f>SUM(C35:G35)</f>
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1917,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f>SUM(C36:G36)</f>
         <v>1</v>
       </c>
       <c r="I36" t="s">
@@ -1929,19 +1959,19 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1950,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f>SUM(C37:G37)</f>
         <v>1</v>
       </c>
       <c r="I37" t="s">
@@ -1959,10 +1989,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1971,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1980,8 +2010,8 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C38:G38)</f>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
         <v>43</v>
@@ -1989,16 +2019,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2010,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>43</v>
+        <f>SUM(C39:G39)</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2031,34 +2061,34 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>23</v>
+        <f>SUM(C40:G40)</f>
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2070,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f>SUM(C41:G41)</f>
         <v>1</v>
       </c>
       <c r="I41" t="s">
@@ -2079,10 +2109,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2091,37 +2121,37 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I42">
-        <v>10</v>
+        <f>SUM(C42:G42)</f>
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2130,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f>SUM(C43:G43)</f>
         <v>1</v>
       </c>
       <c r="I43" t="s">
@@ -2139,40 +2169,40 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I44">
-        <v>12</v>
+        <f>SUM(C44:G44)</f>
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>114</v>
+      <c r="A45" t="s">
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2181,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2190,38 +2220,38 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>43</v>
+        <f>SUM(C45:G45)</f>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(C46:G46)</f>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
         <v>43</v>
@@ -2229,29 +2259,29 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>SUM(C47:G47)</f>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>43</v>
@@ -2259,10 +2289,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2280,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
+        <f>SUM(C48:G48)</f>
         <v>1</v>
       </c>
       <c r="I48" t="s">
@@ -2289,40 +2319,40 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>SUM(C49:G49)</f>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2331,16 +2361,16 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
+        <f>SUM(C50:G50)</f>
         <v>1</v>
       </c>
       <c r="I50" t="s">
@@ -2349,19 +2379,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2370,8 +2400,8 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(C51:G51)</f>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
         <v>43</v>
@@ -2379,10 +2409,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2397,11 +2427,11 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(C52:G52)</f>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
         <v>43</v>
@@ -2409,13 +2439,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2430,8 +2460,8 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(C53:G53)</f>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
         <v>43</v>
@@ -2439,19 +2469,19 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2460,28 +2490,28 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>43</v>
+        <f>SUM(C54:G54)</f>
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>101</v>
+      <c r="A55" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2490,8 +2520,8 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C55:G55)</f>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
         <v>43</v>
@@ -2499,10 +2529,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2511,17 +2541,17 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C56:G56)</f>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
         <v>43</v>
@@ -2529,13 +2559,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2547,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
+        <f>SUM(C57:G57)</f>
         <v>1</v>
       </c>
       <c r="I57" t="s">
@@ -2559,10 +2589,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2571,28 +2601,28 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I58">
-        <v>15</v>
+        <f>SUM(C58:G58)</f>
+        <v>5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>112</v>
+      <c r="A59" t="s">
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2601,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
+        <f>SUM(C59:G59)</f>
         <v>1</v>
       </c>
       <c r="I59" t="s">
@@ -2619,49 +2649,49 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>43</v>
+        <f>SUM(C60:G60)</f>
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2670,28 +2700,28 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I61">
-        <v>21</v>
+        <f>SUM(C61:G61)</f>
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2700,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C62:G62)</f>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>110</v>
+      <c r="A63" t="s">
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2721,17 +2751,17 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C63:G63)</f>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
         <v>43</v>
@@ -2739,29 +2769,29 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C64:G64)</f>
+        <v>3</v>
       </c>
       <c r="I64" t="s">
         <v>43</v>
@@ -2769,10 +2799,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2790,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <f t="shared" si="1"/>
+        <f>SUM(C65:G65)</f>
         <v>1</v>
       </c>
       <c r="I65" t="s">
@@ -2799,16 +2829,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2817,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
+        <f>SUM(C66:G66)</f>
         <v>1</v>
       </c>
       <c r="I66" t="s">
@@ -2829,10 +2859,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2841,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="1"/>
+        <f>SUM(C67:G67)</f>
         <v>1</v>
       </c>
       <c r="I67" t="s">
@@ -2859,13 +2889,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2877,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
+        <f>SUM(C68:G68)</f>
         <v>1</v>
       </c>
       <c r="I68" t="s">
@@ -2889,13 +2919,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2910,19 +2940,19 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>43</v>
+        <f>SUM(C69:G69)</f>
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>146</v>
+      <c r="A70" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2931,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
+        <f>SUM(C70:G70)</f>
         <v>1</v>
       </c>
       <c r="I70" t="s">
@@ -2949,10 +2979,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2970,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f>SUM(C71:G71)</f>
         <v>1</v>
       </c>
       <c r="I71" t="s">
@@ -2978,34 +3008,158 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>104</v>
+      </c>
       <c r="C72">
-        <f>SUM(C2:C71)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:E72" si="2">SUM(D2:D71)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <f>SUM(F2:F71)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" ref="G72" si="3">SUM(G2:G71)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72" si="4">SUM(H2:H71)</f>
-        <v>125</v>
+        <f>SUM(C72:G72)</f>
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f>SUM(C73:G73)</f>
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f>SUM(C74:G74)</f>
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>SUM(C75:G75)</f>
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>SUM(C76:G76)</f>
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
-    <sortCondition ref="A2:A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I77">
+    <sortCondition ref="A2:A77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Result/DataTable.xlsx
+++ b/Result/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsiddiqsunny/Documents/Notre Dame/Research/SecurityEval/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D43D4B-ECD2-0D45-B92C-507E9BEB8F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5991D-3839-F347-9A73-3A3336E28F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{E3FB6B4D-BFE5-BF42-BAE6-66D1841BF3B8}"/>
   </bookViews>
@@ -358,9 +358,6 @@
     <t>Incorrectly Specified Destination in a Communication Channel</t>
   </si>
   <si>
-    <t>Soner Rules</t>
-  </si>
-  <si>
     <t>CWE-384</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t>CWE-827</t>
   </si>
   <si>
-    <t>Improper Control of Document Type Definiti</t>
-  </si>
-  <si>
     <t>CWE-521</t>
   </si>
   <si>
@@ -515,6 +509,12 @@
   </si>
   <si>
     <t>Exposure of Data Element to Wrong Session</t>
+  </si>
+  <si>
+    <t>Sonar Rules</t>
+  </si>
+  <si>
+    <t>Improper Control of Document Type Definition</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C640A27-5BFC-554F-83B2-41C29522278D}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I76"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,7 +892,7 @@
         <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
         <v>44</v>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <f>SUM(C2:G2)</f>
+        <f t="shared" ref="H2:H33" si="0">SUM(C2:G2)</f>
         <v>6</v>
       </c>
       <c r="I2">
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <f>SUM(C3:G3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I3">
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f>SUM(C4:G4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I4">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUM(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I5">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <f>SUM(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6" t="s">
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I7">
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I8" t="s">
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I9">
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -1179,10 +1179,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUM(C11:G11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I11" t="s">
@@ -1209,10 +1209,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUM(C12:G12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I12" t="s">
@@ -1260,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <f>SUM(C13:G13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I13" t="s">
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f>SUM(C14:G14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I14" t="s">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f>SUM(C15:G15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I15" t="s">
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <f>SUM(C16:G16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I16" t="s">
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f>SUM(C17:G17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I17" t="s">
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f>SUM(C18:G18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I18" t="s">
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f>SUM(C19:G19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I19" t="s">
@@ -1449,10 +1449,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <f>SUM(C20:G20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I20" t="s">
@@ -1500,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <f>SUM(C21:G21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I21" t="s">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f>SUM(C22:G22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I22" t="s">
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f>SUM(C23:G23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I23" t="s">
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <f>SUM(C24:G24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I24" t="s">
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f>SUM(C25:G25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I25" t="s">
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <f>SUM(C26:G26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I26" t="s">
@@ -1659,10 +1659,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f>SUM(C27:G27)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I27" t="s">
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f>SUM(C28:G28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I28">
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f>SUM(C29:G29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I29" t="s">
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I30" t="s">
@@ -1779,10 +1779,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I31" t="s">
@@ -1830,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="H32">
-        <f>SUM(C32:G32)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I32" t="s">
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f>SUM(C33:G33)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I33" t="s">
@@ -1869,10 +1869,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <f>SUM(C34:G34)</f>
+        <f t="shared" ref="H34:H65" si="1">SUM(C34:G34)</f>
         <v>1</v>
       </c>
       <c r="I34" t="s">
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <f>SUM(C35:G35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I35" t="s">
@@ -1929,10 +1929,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <f>SUM(C36:G36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I36" t="s">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f>SUM(C37:G37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I37" t="s">
@@ -1989,10 +1989,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f>SUM(C38:G38)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I38" t="s">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f>SUM(C39:G39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I39">
@@ -2049,10 +2049,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <f>SUM(C40:G40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I40" t="s">
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f>SUM(C41:G41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I41" t="s">
@@ -2109,10 +2109,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f>SUM(C42:G42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I42" t="s">
@@ -2139,11 +2139,11 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
         <v>108</v>
       </c>
-      <c r="B43" t="s">
-        <v>109</v>
-      </c>
       <c r="C43">
         <v>0</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f>SUM(C43:G43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I43" t="s">
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f>SUM(C44:G44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I44" t="s">
@@ -2199,10 +2199,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <f>SUM(C45:G45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I45">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f>SUM(C46:G46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I46" t="s">
@@ -2259,10 +2259,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <f>SUM(C47:G47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I47" t="s">
@@ -2289,10 +2289,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <f>SUM(C48:G48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I48" t="s">
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f>SUM(C49:G49)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I49">
@@ -2349,10 +2349,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <f>SUM(C50:G50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I50" t="s">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <f>SUM(C51:G51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I51" t="s">
@@ -2409,10 +2409,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <f>SUM(C52:G52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I52" t="s">
@@ -2439,10 +2439,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <f>SUM(C53:G53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I53" t="s">
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <f>SUM(C54:G54)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I54">
@@ -2499,10 +2499,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f>SUM(C55:G55)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I55" t="s">
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <f>SUM(C56:G56)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I56" t="s">
@@ -2559,10 +2559,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <f>SUM(C57:G57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I57" t="s">
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <f>SUM(C58:G58)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I58" t="s">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <f>SUM(C59:G59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I59" t="s">
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <f>SUM(C60:G60)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I60">
@@ -2679,10 +2679,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <f>SUM(C61:G61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I61" t="s">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f>SUM(C62:G62)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I62" t="s">
@@ -2760,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="H63">
-        <f>SUM(C63:G63)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I63" t="s">
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <f>SUM(C64:G64)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I64" t="s">
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <f>SUM(C65:G65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I65" t="s">
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f>SUM(C66:G66)</f>
+        <f t="shared" ref="H66:H76" si="2">SUM(C66:G66)</f>
         <v>1</v>
       </c>
       <c r="I66" t="s">
@@ -2859,10 +2859,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <f>SUM(C67:G67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I67" t="s">
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <f>SUM(C68:G68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I68" t="s">
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <f>SUM(C69:G69)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I69">
@@ -2949,10 +2949,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <f>SUM(C70:G70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I70" t="s">
@@ -2979,10 +2979,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <f>SUM(C71:G71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I71" t="s">
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f>SUM(C72:G72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I72" t="s">
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <f>SUM(C73:G73)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I73">
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <f>SUM(C74:G74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I74" t="s">
@@ -3099,11 +3099,11 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" t="s">
         <v>110</v>
       </c>
-      <c r="B75" t="s">
-        <v>111</v>
-      </c>
       <c r="C75">
         <v>0</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <f>SUM(C75:G75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I75" t="s">
@@ -3129,10 +3129,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <f>SUM(C76:G76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I76" t="s">
